--- a/Code/Results/Cases/Case_5_129/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_129/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.65356915589598</v>
+        <v>1.2054769113617</v>
       </c>
       <c r="C2">
-        <v>1.002244524435042</v>
+        <v>0.3299325156323505</v>
       </c>
       <c r="D2">
-        <v>0.03861069538335471</v>
+        <v>0.01388337651986404</v>
       </c>
       <c r="E2">
-        <v>1.44589092180945</v>
+        <v>0.4245925918300344</v>
       </c>
       <c r="F2">
-        <v>0.4574658647079843</v>
+        <v>0.441698669717745</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.194603449400716</v>
+        <v>1.383927038744844</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.17684328689694</v>
+        <v>1.056831324844325</v>
       </c>
       <c r="C3">
-        <v>0.8803640611765502</v>
+        <v>0.2904986091814408</v>
       </c>
       <c r="D3">
-        <v>0.03419790003680134</v>
+        <v>0.01236594077360564</v>
       </c>
       <c r="E3">
-        <v>1.239190336923883</v>
+        <v>0.37026579236597</v>
       </c>
       <c r="F3">
-        <v>0.4099553381823</v>
+        <v>0.4375669543272593</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.086297697569194</v>
+        <v>1.384955041402407</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.885098170475544</v>
+        <v>0.9653392133317311</v>
       </c>
       <c r="C4">
-        <v>0.8056924583000864</v>
+        <v>0.2661785677906607</v>
       </c>
       <c r="D4">
-        <v>0.0314980070585591</v>
+        <v>0.01143135250730154</v>
       </c>
       <c r="E4">
-        <v>1.114984026144938</v>
+        <v>0.3370109357875037</v>
       </c>
       <c r="F4">
-        <v>0.3825950706501331</v>
+        <v>0.4355725835690976</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.025905654002202</v>
+        <v>1.387419968358103</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.766384131251868</v>
+        <v>0.9280008519348257</v>
       </c>
       <c r="C5">
-        <v>0.7752885288976472</v>
+        <v>0.2562414314373882</v>
       </c>
       <c r="D5">
-        <v>0.03039953561561504</v>
+        <v>0.01104980545873246</v>
       </c>
       <c r="E5">
-        <v>1.06494422978318</v>
+        <v>0.3234828543049986</v>
       </c>
       <c r="F5">
-        <v>0.3718607182555473</v>
+        <v>0.4348954029591994</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.002698521908457</v>
+        <v>1.388882426217862</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.746680395334408</v>
+        <v>0.9217975943939791</v>
       </c>
       <c r="C6">
-        <v>0.7702410766613923</v>
+        <v>0.2545897906098844</v>
       </c>
       <c r="D6">
-        <v>0.03021722369268076</v>
+        <v>0.01098640875816415</v>
       </c>
       <c r="E6">
-        <v>1.056666997811206</v>
+        <v>0.3212378872433845</v>
       </c>
       <c r="F6">
-        <v>0.3701022390444137</v>
+        <v>0.4347911182924733</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9989260400546982</v>
+        <v>1.38915283563486</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.883496531570358</v>
+        <v>0.9648358740913636</v>
       </c>
       <c r="C7">
-        <v>0.8052823374376317</v>
+        <v>0.2660446588068339</v>
       </c>
       <c r="D7">
-        <v>0.03148318638440628</v>
+        <v>0.01142620960523999</v>
       </c>
       <c r="E7">
-        <v>1.11430697535846</v>
+        <v>0.3368283987874321</v>
       </c>
       <c r="F7">
-        <v>0.3824486735509609</v>
+        <v>0.435562903239834</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.025587161822955</v>
+        <v>1.387437841387509</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.488950276362743</v>
+        <v>1.154271079244324</v>
       </c>
       <c r="C8">
-        <v>0.9601762468161894</v>
+        <v>0.3163582940311471</v>
       </c>
       <c r="D8">
-        <v>0.03708675757804514</v>
+        <v>0.01336077815361847</v>
       </c>
       <c r="E8">
-        <v>1.37399140402978</v>
+        <v>0.4058382475447218</v>
       </c>
       <c r="F8">
-        <v>0.4406830789456819</v>
+        <v>0.440160922482022</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.155908789986285</v>
+        <v>1.383899017092546</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.687372499497542</v>
+        <v>1.523935298033621</v>
       </c>
       <c r="C9">
-        <v>1.266022097151222</v>
+        <v>0.4141536311091727</v>
       </c>
       <c r="D9">
-        <v>0.04818550004035416</v>
+        <v>0.01713059949575069</v>
       </c>
       <c r="E9">
-        <v>1.910101905316509</v>
+        <v>0.5420775926543655</v>
       </c>
       <c r="F9">
-        <v>0.5712390427095571</v>
+        <v>0.453523150812174</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.466485400245091</v>
+        <v>1.391652447194474</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.580062994807065</v>
+        <v>1.794384906139726</v>
       </c>
       <c r="C10">
-        <v>1.493274756660014</v>
+        <v>0.4854586294006822</v>
       </c>
       <c r="D10">
-        <v>0.05646241210082792</v>
+        <v>0.01988466917678267</v>
       </c>
       <c r="E10">
-        <v>2.328942523170085</v>
+        <v>0.6428785719488133</v>
       </c>
       <c r="F10">
-        <v>0.6801860287837513</v>
+        <v>0.4660478875119622</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.738300127749113</v>
+        <v>1.406507688373466</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.990202706177399</v>
+        <v>1.917166366813888</v>
       </c>
       <c r="C11">
-        <v>1.597536429604418</v>
+        <v>0.5177761598071697</v>
       </c>
       <c r="D11">
-        <v>0.06026921519894302</v>
+        <v>0.02113398204294725</v>
       </c>
       <c r="E11">
-        <v>2.527182316141605</v>
+        <v>0.6889221478109562</v>
       </c>
       <c r="F11">
-        <v>0.733350665616328</v>
+        <v>0.4723463114223563</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.873993580230575</v>
+        <v>1.415298141285945</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.146223832119517</v>
+        <v>1.963623957007314</v>
       </c>
       <c r="C12">
-        <v>1.637175295503653</v>
+        <v>0.5299964307634468</v>
       </c>
       <c r="D12">
-        <v>0.06171817412964486</v>
+        <v>0.02160653608757457</v>
       </c>
       <c r="E12">
-        <v>2.603584381246691</v>
+        <v>0.7063873339732254</v>
       </c>
       <c r="F12">
-        <v>0.7540744535712349</v>
+        <v>0.4748187584742567</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.927353549975606</v>
+        <v>1.418922657074035</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.112588108583623</v>
+        <v>1.953620156600778</v>
       </c>
       <c r="C13">
-        <v>1.628630841177369</v>
+        <v>0.5273653707092194</v>
       </c>
       <c r="D13">
-        <v>0.06140576057514835</v>
+        <v>0.0215047872627494</v>
       </c>
       <c r="E13">
-        <v>2.587066586312332</v>
+        <v>0.7026245446588746</v>
       </c>
       <c r="F13">
-        <v>0.7495836463256325</v>
+        <v>0.4742823714906024</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.915769440902665</v>
+        <v>1.418128843461943</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.0030236396791</v>
+        <v>1.920989212423251</v>
       </c>
       <c r="C14">
-        <v>1.600794205042519</v>
+        <v>0.5187818859170648</v>
       </c>
       <c r="D14">
-        <v>0.06038826459241875</v>
+        <v>0.02117287019112268</v>
       </c>
       <c r="E14">
-        <v>2.53343983225723</v>
+        <v>0.6903584147401745</v>
       </c>
       <c r="F14">
-        <v>0.7350433185091845</v>
+        <v>0.4725479645388617</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.878342433681695</v>
+        <v>1.415590385022313</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.936008769857722</v>
+        <v>1.900996943457415</v>
       </c>
       <c r="C15">
-        <v>1.583764899842151</v>
+        <v>0.5135219371092035</v>
       </c>
       <c r="D15">
-        <v>0.05976602918973839</v>
+        <v>0.02096949113956725</v>
       </c>
       <c r="E15">
-        <v>2.500772756271303</v>
+        <v>0.6828489657860644</v>
       </c>
       <c r="F15">
-        <v>0.7262163023034418</v>
+        <v>0.4714969972042695</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.855682373255007</v>
+        <v>1.414074125701575</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.55335147447164</v>
+        <v>1.786355740578244</v>
       </c>
       <c r="C16">
-        <v>1.486481283388457</v>
+        <v>0.4833441559972584</v>
       </c>
       <c r="D16">
-        <v>0.05621458255129141</v>
+        <v>0.01980295038744373</v>
       </c>
       <c r="E16">
-        <v>2.316160600413454</v>
+        <v>0.6398735132023745</v>
       </c>
       <c r="F16">
-        <v>0.6767901812289239</v>
+        <v>0.4656484441841258</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.72969477305071</v>
+        <v>1.40597441066285</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.319727173906699</v>
+        <v>1.7159626214073</v>
       </c>
       <c r="C17">
-        <v>1.427047512301726</v>
+        <v>0.4648001082296673</v>
       </c>
       <c r="D17">
-        <v>0.05404748730062181</v>
+        <v>0.0190863929290046</v>
       </c>
       <c r="E17">
-        <v>2.205030298275005</v>
+        <v>0.6135594577242642</v>
       </c>
       <c r="F17">
-        <v>0.6474413772912158</v>
+        <v>0.4622151284550426</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.655654577717996</v>
+        <v>1.401528585528638</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.18572540217184</v>
+        <v>1.67545115994136</v>
       </c>
       <c r="C18">
-        <v>1.392943901907813</v>
+        <v>0.4541228461810647</v>
       </c>
       <c r="D18">
-        <v>0.05280484970190003</v>
+        <v>0.01867391755196479</v>
       </c>
       <c r="E18">
-        <v>2.141821199478073</v>
+        <v>0.5984419285571221</v>
       </c>
       <c r="F18">
-        <v>0.6308950932391468</v>
+        <v>0.4602968736919166</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.614185979594282</v>
+        <v>1.399162587266261</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.140415076905697</v>
+        <v>1.661730736876791</v>
       </c>
       <c r="C19">
-        <v>1.381410077713838</v>
+        <v>0.4505057976432454</v>
       </c>
       <c r="D19">
-        <v>0.05238472970526686</v>
+        <v>0.01853420453561938</v>
       </c>
       <c r="E19">
-        <v>2.120535350376585</v>
+        <v>0.593326348084986</v>
       </c>
       <c r="F19">
-        <v>0.6253481424863452</v>
+        <v>0.4596570596562657</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.600330373230435</v>
+        <v>1.398394221217472</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.344557424785194</v>
+        <v>1.72345850135747</v>
       </c>
       <c r="C20">
-        <v>1.433365735797963</v>
+        <v>0.4667753182363299</v>
       </c>
       <c r="D20">
-        <v>0.05427777345873608</v>
+        <v>0.01916270609149962</v>
       </c>
       <c r="E20">
-        <v>2.216785296334038</v>
+        <v>0.6163587933429682</v>
       </c>
       <c r="F20">
-        <v>0.6505304985082034</v>
+        <v>0.4625747564943907</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.663418966590456</v>
+        <v>1.401982045758189</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.035185013054559</v>
+        <v>1.930574729968157</v>
       </c>
       <c r="C21">
-        <v>1.608965972733529</v>
+        <v>0.521303547098853</v>
       </c>
       <c r="D21">
-        <v>0.06068691444045982</v>
+        <v>0.02127037696963896</v>
       </c>
       <c r="E21">
-        <v>2.549153166963919</v>
+        <v>0.6939604554036123</v>
       </c>
       <c r="F21">
-        <v>0.7392974844045028</v>
+        <v>0.4730550229627255</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.889279935424497</v>
+        <v>1.416327937285843</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.490760030649881</v>
+        <v>2.065720332583794</v>
       </c>
       <c r="C22">
-        <v>1.724664246468478</v>
+        <v>0.5568376430126136</v>
       </c>
       <c r="D22">
-        <v>0.06491964349890367</v>
+        <v>0.02264473974224757</v>
       </c>
       <c r="E22">
-        <v>2.774275462990687</v>
+        <v>0.7448505902177658</v>
       </c>
       <c r="F22">
-        <v>0.8008001998274636</v>
+        <v>0.4804141968492672</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.048545632740428</v>
+        <v>1.42742934729705</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.247179511589195</v>
+        <v>1.993610907615164</v>
       </c>
       <c r="C23">
-        <v>1.662817484722609</v>
+        <v>0.5378820360190844</v>
       </c>
       <c r="D23">
-        <v>0.06265600365708224</v>
+        <v>0.02191151061945362</v>
       </c>
       <c r="E23">
-        <v>2.653316705848056</v>
+        <v>0.7176729576034973</v>
       </c>
       <c r="F23">
-        <v>0.7676292655277308</v>
+        <v>0.4764395078873349</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.96238756885117</v>
+        <v>1.42134528323092</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.333330706157028</v>
+        <v>1.7200697432487</v>
       </c>
       <c r="C24">
-        <v>1.430509064683918</v>
+        <v>0.4658823757277446</v>
       </c>
       <c r="D24">
-        <v>0.05417365105488159</v>
+        <v>0.01912820651954661</v>
       </c>
       <c r="E24">
-        <v>2.211468756447289</v>
+        <v>0.6150931803568795</v>
       </c>
       <c r="F24">
-        <v>0.649132894523035</v>
+        <v>0.4624119955302888</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.659905284108788</v>
+        <v>1.401776444925162</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.361450325056353</v>
+        <v>1.424129652389411</v>
       </c>
       <c r="C25">
-        <v>1.182935475828856</v>
+        <v>0.3877921022066744</v>
       </c>
       <c r="D25">
-        <v>0.04516592618351467</v>
+        <v>0.01611343166023005</v>
       </c>
       <c r="E25">
-        <v>1.7613756796774</v>
+        <v>0.5051082374701679</v>
       </c>
       <c r="F25">
-        <v>0.5338722426101299</v>
+        <v>0.4494370706573534</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.375597415449533</v>
+        <v>1.387961149817301</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_129/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_129/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.2054769113617</v>
+        <v>3.653569155896037</v>
       </c>
       <c r="C2">
-        <v>0.3299325156323505</v>
+        <v>1.002244524435298</v>
       </c>
       <c r="D2">
-        <v>0.01388337651986404</v>
+        <v>0.03861069538323392</v>
       </c>
       <c r="E2">
-        <v>0.4245925918300344</v>
+        <v>1.44589092180945</v>
       </c>
       <c r="F2">
-        <v>0.441698669717745</v>
+        <v>0.4574658647079701</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.383927038744844</v>
+        <v>1.194603449400716</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.056831324844325</v>
+        <v>3.176843286896997</v>
       </c>
       <c r="C3">
-        <v>0.2904986091814408</v>
+        <v>0.8803640611762944</v>
       </c>
       <c r="D3">
-        <v>0.01236594077360564</v>
+        <v>0.03419790003680134</v>
       </c>
       <c r="E3">
-        <v>0.37026579236597</v>
+        <v>1.239190336923883</v>
       </c>
       <c r="F3">
-        <v>0.4375669543272593</v>
+        <v>0.4099553381823</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.384955041402407</v>
+        <v>1.086297697569137</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9653392133317311</v>
+        <v>2.885098170475544</v>
       </c>
       <c r="C4">
-        <v>0.2661785677906607</v>
+        <v>0.8056924583000864</v>
       </c>
       <c r="D4">
-        <v>0.01143135250730154</v>
+        <v>0.03149800705845962</v>
       </c>
       <c r="E4">
-        <v>0.3370109357875037</v>
+        <v>1.114984026144967</v>
       </c>
       <c r="F4">
-        <v>0.4355725835690976</v>
+        <v>0.3825950706501473</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.387419968358103</v>
+        <v>1.025905654002116</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9280008519348257</v>
+        <v>2.766384131251812</v>
       </c>
       <c r="C5">
-        <v>0.2562414314373882</v>
+        <v>0.7752885288976188</v>
       </c>
       <c r="D5">
-        <v>0.01104980545873246</v>
+        <v>0.03039953561571451</v>
       </c>
       <c r="E5">
-        <v>0.3234828543049986</v>
+        <v>1.064944229783151</v>
       </c>
       <c r="F5">
-        <v>0.4348954029591994</v>
+        <v>0.3718607182555473</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.388882426217862</v>
+        <v>1.002698521908428</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9217975943939791</v>
+        <v>2.746680395334408</v>
       </c>
       <c r="C6">
-        <v>0.2545897906098844</v>
+        <v>0.7702410766613355</v>
       </c>
       <c r="D6">
-        <v>0.01098640875816415</v>
+        <v>0.03021722369252444</v>
       </c>
       <c r="E6">
-        <v>0.3212378872433845</v>
+        <v>1.056666997811192</v>
       </c>
       <c r="F6">
-        <v>0.4347911182924733</v>
+        <v>0.3701022390443995</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.38915283563486</v>
+        <v>0.9989260400546698</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9648358740913636</v>
+        <v>2.883496531570131</v>
       </c>
       <c r="C7">
-        <v>0.2660446588068339</v>
+        <v>0.8052823374376317</v>
       </c>
       <c r="D7">
-        <v>0.01142620960523999</v>
+        <v>0.03148318638439918</v>
       </c>
       <c r="E7">
-        <v>0.3368283987874321</v>
+        <v>1.114306975358431</v>
       </c>
       <c r="F7">
-        <v>0.435562903239834</v>
+        <v>0.3824486735509538</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.387437841387509</v>
+        <v>1.025587161822898</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.154271079244324</v>
+        <v>3.4889502763628</v>
       </c>
       <c r="C8">
-        <v>0.3163582940311471</v>
+        <v>0.9601762468160757</v>
       </c>
       <c r="D8">
-        <v>0.01336077815361847</v>
+        <v>0.0370867575780025</v>
       </c>
       <c r="E8">
-        <v>0.4058382475447218</v>
+        <v>1.373991404029766</v>
       </c>
       <c r="F8">
-        <v>0.440160922482022</v>
+        <v>0.4406830789456819</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.383899017092546</v>
+        <v>1.155908789986228</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.523935298033621</v>
+        <v>4.687372499497542</v>
       </c>
       <c r="C9">
-        <v>0.4141536311091727</v>
+        <v>1.266022097150994</v>
       </c>
       <c r="D9">
-        <v>0.01713059949575069</v>
+        <v>0.04818550004039679</v>
       </c>
       <c r="E9">
-        <v>0.5420775926543655</v>
+        <v>1.910101905316466</v>
       </c>
       <c r="F9">
-        <v>0.453523150812174</v>
+        <v>0.5712390427095642</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.391652447194474</v>
+        <v>1.466485400245119</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.794384906139726</v>
+        <v>5.580062994807008</v>
       </c>
       <c r="C10">
-        <v>0.4854586294006822</v>
+        <v>1.493274756660185</v>
       </c>
       <c r="D10">
-        <v>0.01988466917678267</v>
+        <v>0.05646241210065028</v>
       </c>
       <c r="E10">
-        <v>0.6428785719488133</v>
+        <v>2.328942523170113</v>
       </c>
       <c r="F10">
-        <v>0.4660478875119622</v>
+        <v>0.6801860287837656</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.406507688373466</v>
+        <v>1.738300127749142</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.917166366813888</v>
+        <v>5.99020270617774</v>
       </c>
       <c r="C11">
-        <v>0.5177761598071697</v>
+        <v>1.597536429604133</v>
       </c>
       <c r="D11">
-        <v>0.02113398204294725</v>
+        <v>0.06026921519906381</v>
       </c>
       <c r="E11">
-        <v>0.6889221478109562</v>
+        <v>2.527182316141563</v>
       </c>
       <c r="F11">
-        <v>0.4723463114223563</v>
+        <v>0.7333506656163138</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.415298141285945</v>
+        <v>1.873993580230604</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.963623957007314</v>
+        <v>6.146223832119233</v>
       </c>
       <c r="C12">
-        <v>0.5299964307634468</v>
+        <v>1.63717529550371</v>
       </c>
       <c r="D12">
-        <v>0.02160653608757457</v>
+        <v>0.06171817412964486</v>
       </c>
       <c r="E12">
-        <v>0.7063873339732254</v>
+        <v>2.603584381246691</v>
       </c>
       <c r="F12">
-        <v>0.4748187584742567</v>
+        <v>0.7540744535712633</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.418922657074035</v>
+        <v>1.927353549975606</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.953620156600778</v>
+        <v>6.112588108583907</v>
       </c>
       <c r="C13">
-        <v>0.5273653707092194</v>
+        <v>1.628630841177255</v>
       </c>
       <c r="D13">
-        <v>0.0215047872627494</v>
+        <v>0.06140576057514124</v>
       </c>
       <c r="E13">
-        <v>0.7026245446588746</v>
+        <v>2.587066586312318</v>
       </c>
       <c r="F13">
-        <v>0.4742823714906024</v>
+        <v>0.7495836463256325</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.418128843461943</v>
+        <v>1.915769440902721</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.920989212423251</v>
+        <v>6.003023639679157</v>
       </c>
       <c r="C14">
-        <v>0.5187818859170648</v>
+        <v>1.600794205042689</v>
       </c>
       <c r="D14">
-        <v>0.02117287019112268</v>
+        <v>0.06038826459217717</v>
       </c>
       <c r="E14">
-        <v>0.6903584147401745</v>
+        <v>2.53343983225723</v>
       </c>
       <c r="F14">
-        <v>0.4725479645388617</v>
+        <v>0.7350433185091987</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.415590385022313</v>
+        <v>1.878342433681809</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.900996943457415</v>
+        <v>5.936008769857779</v>
       </c>
       <c r="C15">
-        <v>0.5135219371092035</v>
+        <v>1.583764899841924</v>
       </c>
       <c r="D15">
-        <v>0.02096949113956725</v>
+        <v>0.05976602918984497</v>
       </c>
       <c r="E15">
-        <v>0.6828489657860644</v>
+        <v>2.500772756271289</v>
       </c>
       <c r="F15">
-        <v>0.4714969972042695</v>
+        <v>0.7262163023034418</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.414074125701575</v>
+        <v>1.855682373255036</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.786355740578244</v>
+        <v>5.553351474471583</v>
       </c>
       <c r="C16">
-        <v>0.4833441559972584</v>
+        <v>1.486481283388798</v>
       </c>
       <c r="D16">
-        <v>0.01980295038744373</v>
+        <v>0.05621458255117062</v>
       </c>
       <c r="E16">
-        <v>0.6398735132023745</v>
+        <v>2.316160600413454</v>
       </c>
       <c r="F16">
-        <v>0.4656484441841258</v>
+        <v>0.6767901812289097</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.40597441066285</v>
+        <v>1.72969477305071</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.7159626214073</v>
+        <v>5.319727173906585</v>
       </c>
       <c r="C17">
-        <v>0.4648001082296673</v>
+        <v>1.427047512301669</v>
       </c>
       <c r="D17">
-        <v>0.0190863929290046</v>
+        <v>0.05404748730052233</v>
       </c>
       <c r="E17">
-        <v>0.6135594577242642</v>
+        <v>2.205030298274977</v>
       </c>
       <c r="F17">
-        <v>0.4622151284550426</v>
+        <v>0.6474413772912015</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.401528585528638</v>
+        <v>1.655654577717996</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.67545115994136</v>
+        <v>5.185725402171613</v>
       </c>
       <c r="C18">
-        <v>0.4541228461810647</v>
+        <v>1.392943901908097</v>
       </c>
       <c r="D18">
-        <v>0.01867391755196479</v>
+        <v>0.05280484970182897</v>
       </c>
       <c r="E18">
-        <v>0.5984419285571221</v>
+        <v>2.141821199478073</v>
       </c>
       <c r="F18">
-        <v>0.4602968736919166</v>
+        <v>0.630895093239161</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.399162587266261</v>
+        <v>1.614185979594282</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.661730736876791</v>
+        <v>5.14041507690564</v>
       </c>
       <c r="C19">
-        <v>0.4505057976432454</v>
+        <v>1.381410077713554</v>
       </c>
       <c r="D19">
-        <v>0.01853420453561938</v>
+        <v>0.05238472970519581</v>
       </c>
       <c r="E19">
-        <v>0.593326348084986</v>
+        <v>2.120535350376599</v>
       </c>
       <c r="F19">
-        <v>0.4596570596562657</v>
+        <v>0.625348142486331</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.398394221217472</v>
+        <v>1.600330373230292</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.72345850135747</v>
+        <v>5.34455742478508</v>
       </c>
       <c r="C20">
-        <v>0.4667753182363299</v>
+        <v>1.433365735797963</v>
       </c>
       <c r="D20">
-        <v>0.01916270609149962</v>
+        <v>0.05427777345895635</v>
       </c>
       <c r="E20">
-        <v>0.6163587933429682</v>
+        <v>2.216785296334024</v>
       </c>
       <c r="F20">
-        <v>0.4625747564943907</v>
+        <v>0.6505304985081892</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.401982045758189</v>
+        <v>1.663418966590456</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.930574729968157</v>
+        <v>6.035185013054445</v>
       </c>
       <c r="C21">
-        <v>0.521303547098853</v>
+        <v>1.608965972733415</v>
       </c>
       <c r="D21">
-        <v>0.02127037696963896</v>
+        <v>0.06068691444040297</v>
       </c>
       <c r="E21">
-        <v>0.6939604554036123</v>
+        <v>2.549153166963947</v>
       </c>
       <c r="F21">
-        <v>0.4730550229627255</v>
+        <v>0.7392974844044744</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.416327937285843</v>
+        <v>1.889279935424554</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.065720332583794</v>
+        <v>6.490760030649597</v>
       </c>
       <c r="C22">
-        <v>0.5568376430126136</v>
+        <v>1.724664246468421</v>
       </c>
       <c r="D22">
-        <v>0.02264473974224757</v>
+        <v>0.0649196434990742</v>
       </c>
       <c r="E22">
-        <v>0.7448505902177658</v>
+        <v>2.774275462990616</v>
       </c>
       <c r="F22">
-        <v>0.4804141968492672</v>
+        <v>0.8008001998274494</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.42742934729705</v>
+        <v>2.048545632740371</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.993610907615164</v>
+        <v>6.247179511589479</v>
       </c>
       <c r="C23">
-        <v>0.5378820360190844</v>
+        <v>1.662817484722552</v>
       </c>
       <c r="D23">
-        <v>0.02191151061945362</v>
+        <v>0.06265600365713198</v>
       </c>
       <c r="E23">
-        <v>0.7176729576034973</v>
+        <v>2.653316705848027</v>
       </c>
       <c r="F23">
-        <v>0.4764395078873349</v>
+        <v>0.767629265527745</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.42134528323092</v>
+        <v>1.962387568851085</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.7200697432487</v>
+        <v>5.333330706156858</v>
       </c>
       <c r="C24">
-        <v>0.4658823757277446</v>
+        <v>1.430509064684031</v>
       </c>
       <c r="D24">
-        <v>0.01912820651954661</v>
+        <v>0.05417365105487448</v>
       </c>
       <c r="E24">
-        <v>0.6150931803568795</v>
+        <v>2.211468756447317</v>
       </c>
       <c r="F24">
-        <v>0.4624119955302888</v>
+        <v>0.6491328945230634</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.401776444925162</v>
+        <v>1.659905284108874</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.424129652389411</v>
+        <v>4.361450325056296</v>
       </c>
       <c r="C25">
-        <v>0.3877921022066744</v>
+        <v>1.182935475828856</v>
       </c>
       <c r="D25">
-        <v>0.01611343166023005</v>
+        <v>0.04516592618356441</v>
       </c>
       <c r="E25">
-        <v>0.5051082374701679</v>
+        <v>1.761375679677428</v>
       </c>
       <c r="F25">
-        <v>0.4494370706573534</v>
+        <v>0.5338722426101228</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.387961149817301</v>
+        <v>1.375597415449619</v>
       </c>
     </row>
   </sheetData>
